--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>810531.4282197662</v>
+        <v>837852.6737031933</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18157355.41581893</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2113478.654365224</v>
+        <v>606553.2040797158</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6921755.025266383</v>
+        <v>7471339.202013662</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>301.7455437073469</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -665,7 +667,7 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -722,10 +724,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>411.2087522069209</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -823,16 +825,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>83.42661545872123</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -877,10 +879,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>125.171654445485</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -899,13 +901,13 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>301.0520295881454</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -950,7 +952,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>359.8643779284247</v>
       </c>
     </row>
     <row r="6">
@@ -1069,7 +1071,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1111,10 +1113,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>254.0931201069087</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1136,13 +1138,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>51.97126013527668</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1184,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>44.69616728427791</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1336,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>161.6379250432771</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>125.6544692828923</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1370,22 +1372,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>12.11553319608831</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>192.6947085449831</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1540,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>3.139541480023263</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1613,16 +1615,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>181.5339848062883</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>75.54539544254892</v>
       </c>
     </row>
     <row r="15">
@@ -1774,10 +1776,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>14.14416275345401</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>24.3431845617052</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1907,7 +1909,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2011,13 +2013,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>14.14416275345333</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>155.2022955251541</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2254,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>18.05677735225717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>35.20092700998732</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2615,7 +2617,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430781</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
@@ -2713,16 +2715,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
@@ -2764,13 +2766,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>212.6072792671026</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>93.15725658380842</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2962,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>35.20092700998732</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3196,7 +3198,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>14.14416275345451</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3475,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>75.86622810093208</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3569,7 +3571,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633446</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3676,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>240.9739924675005</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3752,13 +3754,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>111.0877679785123</v>
+        <v>407.2684576718984</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3907,16 +3909,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>111.509818326495</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>3.139541480022995</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3986,16 +3988,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>140.955159223896</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>145.4261460119196</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4135,25 +4137,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>147.9678216489126</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>578.317913686169</v>
+        <v>981.4316298953097</v>
       </c>
       <c r="C2" t="n">
-        <v>544.2158449099963</v>
+        <v>947.329561119137</v>
       </c>
       <c r="D2" t="n">
-        <v>512.3464641248449</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E2" t="n">
-        <v>482.6121233235442</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>489.9993811856698</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>1167.464966128475</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L2" t="n">
-        <v>1344.116250983141</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M2" t="n">
-        <v>1344.116250983141</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N2" t="n">
-        <v>1344.116250983141</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
-        <v>1344.116250983141</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.581835925947</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2568.080621884541</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2737.234686637598</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.012383954615</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V2" t="n">
-        <v>2115.395433888441</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W2" t="n">
-        <v>1710.539979299475</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X2" t="n">
-        <v>1291.397515878785</v>
+        <v>1007.936515999756</v>
       </c>
       <c r="Y2" t="n">
-        <v>883.1113921784387</v>
+        <v>1003.690796339813</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>80.80836689320955</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>405.3666918594219</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K3" t="n">
-        <v>405.3666918594219</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="L3" t="n">
-        <v>1060.072738485145</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="M3" t="n">
-        <v>1060.072738485145</v>
+        <v>740.3049442308645</v>
       </c>
       <c r="N3" t="n">
-        <v>1060.072738485145</v>
+        <v>1401.144998772643</v>
       </c>
       <c r="O3" t="n">
-        <v>1060.072738485145</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P3" t="n">
-        <v>1060.072738485145</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q3" t="n">
-        <v>1600.811677117221</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1133.802854344633</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C4" t="n">
-        <v>961.2411428278582</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D4" t="n">
-        <v>795.3631500293809</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E4" t="n">
-        <v>625.6051462801182</v>
+        <v>318.768219792197</v>
       </c>
       <c r="F4" t="n">
-        <v>448.8980922418745</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G4" t="n">
-        <v>283.3068172677021</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H4" t="n">
-        <v>143.4046429580766</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>834.2927152365385</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M4" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2649.986482340924</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2490.74511363892</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2244.865667217376</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>1966.432666470481</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1679.477158340911</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1553.041143749512</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1553.041143749512</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>1325.62147306362</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1262.62425135613</v>
+        <v>981.0148405224497</v>
       </c>
       <c r="C5" t="n">
-        <v>1228.522182579957</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D5" t="n">
-        <v>792.6123977544016</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E5" t="n">
-        <v>358.8376529126968</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>489.9993811856698</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>489.9993811856698</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L5" t="n">
-        <v>1167.464966128475</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M5" t="n">
-        <v>1167.464966128475</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N5" t="n">
-        <v>1844.930551071281</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>2021.581835925947</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.581835925947</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.080621884541</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2517.167459510636</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>2517.167459510636</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>2517.167459510636</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="W5" t="n">
-        <v>2112.31200492167</v>
+        <v>1785.915842032516</v>
       </c>
       <c r="X5" t="n">
-        <v>1693.16954150098</v>
+        <v>1366.773378611827</v>
       </c>
       <c r="Y5" t="n">
-        <v>1284.883417800634</v>
+        <v>1003.274006966953</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>80.80836689320955</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>405.3666918594219</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>405.3666918594219</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>405.3666918594219</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>405.3666918594219</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1060.072738485145</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1060.072738485145</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1060.072738485145</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1600.811677117221</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1045.142905119309</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C7" t="n">
-        <v>872.5811936025335</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D7" t="n">
-        <v>706.7032008040562</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E7" t="n">
-        <v>536.9451970547935</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F7" t="n">
-        <v>360.2381430165498</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G7" t="n">
-        <v>194.6468680423774</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H7" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2649.986482340924</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="S7" t="n">
-        <v>2490.74511363892</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T7" t="n">
-        <v>2244.865667217376</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U7" t="n">
-        <v>1966.432666470481</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V7" t="n">
-        <v>1709.772949190775</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W7" t="n">
-        <v>1709.772949190775</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X7" t="n">
-        <v>1464.381194524188</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y7" t="n">
-        <v>1236.961523838296</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>599.3615446327429</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C8" t="n">
-        <v>161.2190718161663</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D8" t="n">
-        <v>108.7228494573009</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E8" t="n">
-        <v>78.98850865600016</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>55.16148310561195</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>55.16148310561195</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>55.16148310561195</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>489.9993811856698</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1167.464966128475</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1167.464966128475</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1167.464966128475</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1167.464966128475</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1844.930551071281</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>2522.396136014086</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="Q8" t="n">
-        <v>2737.234686637598</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2517.167459510636</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2257.945156827654</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2257.945156827654</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1853.089702238687</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>1433.947238817997</v>
+        <v>2624.098132161372</v>
       </c>
       <c r="Y8" t="n">
-        <v>1025.661115117651</v>
+        <v>2215.812008461025</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>54.74469373275195</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>54.74469373275195</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>54.74469373275195</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="L9" t="n">
-        <v>54.74469373275195</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="M9" t="n">
-        <v>732.2102786755574</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="N9" t="n">
-        <v>1409.675863618363</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="O9" t="n">
-        <v>1717.984455211561</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="P9" t="n">
-        <v>1717.984455211561</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q9" t="n">
-        <v>1717.984455211561</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1133.802854344633</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>961.2411428278582</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>795.3631500293809</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>625.6051462801182</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>448.8980922418745</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>283.3068172677021</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>143.4046429580766</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2671.404303635552</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2512.162934933549</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2348.892303576703</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U10" t="n">
-        <v>2070.459302829808</v>
+        <v>2210.968635687902</v>
       </c>
       <c r="V10" t="n">
-        <v>2070.459302829808</v>
+        <v>1924.013127558332</v>
       </c>
       <c r="W10" t="n">
-        <v>1798.4328984161</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1553.041143749512</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1325.62147306362</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>884.0099547002803</v>
+        <v>2104.363000055492</v>
       </c>
       <c r="C11" t="n">
-        <v>884.0099547002803</v>
+        <v>1666.220527238915</v>
       </c>
       <c r="D11" t="n">
-        <v>884.0099547002803</v>
+        <v>1230.31074241336</v>
       </c>
       <c r="E11" t="n">
-        <v>884.0099547002803</v>
+        <v>796.5359975716547</v>
       </c>
       <c r="F11" t="n">
-        <v>456.1425251094881</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G11" t="n">
-        <v>54.74469373275195</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H11" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="I11" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J11" t="n">
-        <v>489.9993811856698</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>1167.464966128475</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>1167.464966128475</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="M11" t="n">
-        <v>1167.464966128475</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="N11" t="n">
-        <v>1167.464966128475</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="O11" t="n">
-        <v>1344.116250983141</v>
+        <v>3144.542240397636</v>
       </c>
       <c r="P11" t="n">
-        <v>2021.581835925947</v>
+        <v>3972.852115231032</v>
       </c>
       <c r="Q11" t="n">
-        <v>2568.080621884541</v>
+        <v>4519.350901189627</v>
       </c>
       <c r="R11" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="S11" t="n">
-        <v>2737.234686637598</v>
+        <v>4604.85309212652</v>
       </c>
       <c r="T11" t="n">
-        <v>2737.234686637598</v>
+        <v>4384.785864999559</v>
       </c>
       <c r="U11" t="n">
-        <v>2542.593566895191</v>
+        <v>4125.563562316575</v>
       </c>
       <c r="V11" t="n">
-        <v>2542.593566895191</v>
+        <v>3762.946612250402</v>
       </c>
       <c r="W11" t="n">
-        <v>2137.738112306224</v>
+        <v>3358.091157661435</v>
       </c>
       <c r="X11" t="n">
-        <v>1718.595648885535</v>
+        <v>2938.948694240746</v>
       </c>
       <c r="Y11" t="n">
-        <v>1310.309525185188</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>560.9164387240447</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>454.459977560687</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
-        <v>359.3696887072403</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>265.249274034194</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>181.8654356503556</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>96.48034591653948</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="I12" t="n">
-        <v>80.80836689320955</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J12" t="n">
-        <v>405.3666918594219</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="K12" t="n">
-        <v>405.3666918594219</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="L12" t="n">
-        <v>405.3666918594219</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="M12" t="n">
-        <v>405.3666918594219</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="N12" t="n">
-        <v>405.3666918594219</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="O12" t="n">
-        <v>405.3666918594219</v>
+        <v>820.1139162241249</v>
       </c>
       <c r="P12" t="n">
-        <v>1060.072738485145</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="Q12" t="n">
-        <v>1600.811677117221</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.529017659944</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.350373990545</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.013826990514</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
-        <v>1148.896309052513</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>963.5735547857071</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>808.7061190245871</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.2203398038079</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>742.8207098557364</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C13" t="n">
-        <v>570.2589983389613</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D13" t="n">
-        <v>404.381005540484</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E13" t="n">
-        <v>234.6230017912213</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F13" t="n">
-        <v>57.91594775297747</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G13" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="H13" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="I13" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J13" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>416.0828334685774</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>834.2927152365385</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2649.986482340924</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2490.74511363892</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T13" t="n">
-        <v>2244.865667217376</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U13" t="n">
-        <v>1966.432666470481</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V13" t="n">
-        <v>1679.477158340911</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W13" t="n">
-        <v>1407.450753927203</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X13" t="n">
-        <v>1162.058999260615</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y13" t="n">
-        <v>934.6393285747235</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1356.664380965676</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C14" t="n">
-        <v>918.5219081490998</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D14" t="n">
-        <v>482.6121233235442</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E14" t="n">
-        <v>482.6121233235442</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F14" t="n">
-        <v>54.74469373275195</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G14" t="n">
-        <v>54.74469373275195</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H14" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="I14" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J14" t="n">
-        <v>489.9993811856698</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>1167.464966128475</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>1167.464966128475</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M14" t="n">
-        <v>1167.464966128475</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N14" t="n">
-        <v>1167.464966128475</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O14" t="n">
-        <v>1844.930551071281</v>
+        <v>3144.542240397636</v>
       </c>
       <c r="P14" t="n">
-        <v>2190.735900679003</v>
+        <v>3972.852115231032</v>
       </c>
       <c r="Q14" t="n">
-        <v>2737.234686637598</v>
+        <v>4519.350901189627</v>
       </c>
       <c r="R14" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="S14" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="T14" t="n">
-        <v>2737.234686637598</v>
+        <v>4468.437738815722</v>
       </c>
       <c r="U14" t="n">
-        <v>2737.234686637598</v>
+        <v>4209.215436132738</v>
       </c>
       <c r="V14" t="n">
-        <v>2374.617736571424</v>
+        <v>3846.598486066565</v>
       </c>
       <c r="W14" t="n">
-        <v>2374.617736571424</v>
+        <v>3441.743031477598</v>
       </c>
       <c r="X14" t="n">
-        <v>2191.250075150931</v>
+        <v>3022.600568056909</v>
       </c>
       <c r="Y14" t="n">
-        <v>1782.963951450584</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>560.9164387240447</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>454.459977560687</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
-        <v>359.3696887072403</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>265.249274034194</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>181.8654356503556</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>96.48034591653948</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="I15" t="n">
-        <v>80.80836689320955</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J15" t="n">
-        <v>405.3666918594219</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="K15" t="n">
-        <v>1082.832276802227</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="L15" t="n">
-        <v>1082.832276802227</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="M15" t="n">
-        <v>1082.832276802227</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="N15" t="n">
-        <v>1082.832276802227</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="O15" t="n">
-        <v>1082.832276802227</v>
+        <v>1107.571709137155</v>
       </c>
       <c r="P15" t="n">
-        <v>1177.245516579485</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="Q15" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="R15" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.529017659944</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.350373990545</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.013826990514</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
-        <v>1148.896309052513</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>963.5735547857071</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>808.7061190245871</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.2203398038079</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>742.8207098557364</v>
+        <v>2781.339193457497</v>
       </c>
       <c r="C16" t="n">
-        <v>570.2589983389613</v>
+        <v>2608.777481940721</v>
       </c>
       <c r="D16" t="n">
-        <v>404.381005540484</v>
+        <v>2442.899489142244</v>
       </c>
       <c r="E16" t="n">
-        <v>234.6230017912213</v>
+        <v>2273.141485392981</v>
       </c>
       <c r="F16" t="n">
-        <v>220.3359687069243</v>
+        <v>2096.434431354738</v>
       </c>
       <c r="G16" t="n">
-        <v>54.74469373275195</v>
+        <v>2071.845356039884</v>
       </c>
       <c r="H16" t="n">
-        <v>54.74469373275195</v>
+        <v>2071.845356039884</v>
       </c>
       <c r="I16" t="n">
-        <v>54.74469373275195</v>
+        <v>2071.845356039884</v>
       </c>
       <c r="J16" t="n">
-        <v>141.3243788974418</v>
+        <v>2158.425041204574</v>
       </c>
       <c r="K16" t="n">
-        <v>416.0828334685774</v>
+        <v>2433.18349577571</v>
       </c>
       <c r="L16" t="n">
-        <v>834.2927152365385</v>
+        <v>2851.39337754367</v>
       </c>
       <c r="M16" t="n">
-        <v>1293.776582417452</v>
+        <v>3310.877244724583</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.035385575096</v>
+        <v>3753.136047882228</v>
       </c>
       <c r="O16" t="n">
-        <v>2155.704634800878</v>
+        <v>4172.805297108009</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.211528771219</v>
+        <v>4520.312191078351</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.404303635552</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="R16" t="n">
-        <v>2649.986482340924</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="S16" t="n">
-        <v>2490.74511363892</v>
+        <v>4529.26359724068</v>
       </c>
       <c r="T16" t="n">
-        <v>2244.865667217376</v>
+        <v>4283.384150819135</v>
       </c>
       <c r="U16" t="n">
-        <v>1966.432666470481</v>
+        <v>4004.951150072241</v>
       </c>
       <c r="V16" t="n">
-        <v>1679.477158340911</v>
+        <v>3717.995641942671</v>
       </c>
       <c r="W16" t="n">
-        <v>1407.450753927203</v>
+        <v>3445.969237528963</v>
       </c>
       <c r="X16" t="n">
-        <v>1162.058999260615</v>
+        <v>3200.577482862375</v>
       </c>
       <c r="Y16" t="n">
-        <v>934.6393285747235</v>
+        <v>2973.157812176484</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5522,7 +5524,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5555,10 +5557,10 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D19" t="n">
-        <v>451.897152078511</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E19" t="n">
-        <v>282.1391483292483</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5826,25 +5828,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>970.9960463903949</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>798.4343348736198</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>632.5563420751425</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>462.7983383258798</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>286.091284287636</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>120.5000093134636</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5938,22 +5940,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752034</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U22" t="n">
-        <v>2194.608003005139</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.65249487557</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W22" t="n">
-        <v>1635.626090461861</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
-        <v>1390.234335795274</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>1162.814665109382</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>525.9458847132731</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1601.005850966132</v>
       </c>
       <c r="M23" t="n">
-        <v>3569.079287993933</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="N23" t="n">
-        <v>3569.079287993933</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C24" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D24" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E24" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F24" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G24" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R24" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S24" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T24" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U24" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V24" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W24" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X24" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y24" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3575.440564248063</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C25" t="n">
-        <v>3402.878852731288</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D25" t="n">
-        <v>3237.000859932811</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E25" t="n">
-        <v>3067.242856183548</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F25" t="n">
-        <v>2890.535802145304</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G25" t="n">
-        <v>2724.944527171132</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H25" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>5077.485521609701</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>4799.052520862807</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>4512.097012733238</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>4240.070608319529</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X25" t="n">
-        <v>3994.678853652942</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>3767.25918296705</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6230,13 +6232,13 @@
         <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="N26" t="n">
-        <v>3168.718933692368</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O26" t="n">
         <v>3738.23335274699</v>
@@ -6248,28 +6250,28 @@
         <v>5113.042013538981</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6308,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>842.8792965674086</v>
+        <v>1004.611946844417</v>
       </c>
       <c r="C28" t="n">
-        <v>842.8792965674086</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F28" t="n">
         <v>496.4142387799021</v>
@@ -6412,22 +6414,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2344.924253929048</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2066.491253182153</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1779.535745052583</v>
+        <v>1941.268395329592</v>
       </c>
       <c r="W28" t="n">
-        <v>1507.509340638875</v>
+        <v>1669.241990915884</v>
       </c>
       <c r="X28" t="n">
-        <v>1262.117585972288</v>
+        <v>1423.850236249296</v>
       </c>
       <c r="Y28" t="n">
-        <v>1034.697915286396</v>
+        <v>1196.430565563404</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,22 +6466,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2769.623329187108</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>4875.533979193861</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4875.533979193861</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
         <v>4943.887948785924</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3575.440564248063</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C31" t="n">
-        <v>3402.878852731288</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D31" t="n">
-        <v>3237.000859932811</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E31" t="n">
-        <v>3067.242856183548</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F31" t="n">
-        <v>2890.535802145304</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G31" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>5113.042013538981</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>5077.485521609701</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>4799.052520862807</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>4512.097012733238</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>4240.070608319529</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>3994.678853652942</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>3767.25918296705</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6701,22 +6703,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.671098481817</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>3137.402081918264</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>4117.581748488571</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4945.891623321967</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C33" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D33" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E33" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F33" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G33" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H33" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R33" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S33" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T33" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U33" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V33" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W33" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X33" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y33" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3184.458419759167</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>3011.896708242392</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>2846.018715443915</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>2676.260711694652</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>2661.973678610354</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>4932.38282354235</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>4686.503377120805</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>4408.070376373911</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>4121.114868244342</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>3849.088463830633</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>3603.696709164046</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>3376.277038478154</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6935,31 +6937,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>3137.402081918264</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>4117.581748488571</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4945.891623321967</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722817</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>3762.041963884335</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>3762.041963884335</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>3762.041963884335</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>3762.041963884335</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>4995.869235444641</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>4995.869235444641</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>4995.869235444641</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3575.440564248063</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>3402.878852731288</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>3237.000859932811</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>3067.242856183548</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>2890.535802145304</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>2724.944527171132</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>2585.042352861507</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>4867.162567117437</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U37" t="n">
-        <v>4588.729566370543</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V37" t="n">
-        <v>4512.097012733238</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W37" t="n">
-        <v>4240.070608319529</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X37" t="n">
-        <v>3994.678853652942</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>3767.25918296705</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7172,52 +7174,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>3137.402081918264</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>4117.581748488571</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4945.891623321967</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C39" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D39" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E39" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F39" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M39" t="n">
-        <v>1300.985674363279</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N39" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S39" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W39" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X39" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3486.780615022739</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>3314.218903505964</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>3148.340910707486</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>2978.582906958224</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>2801.87585291998</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>2636.284577945808</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>4953.800644836978</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>4953.800644836978</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>4710.392571637482</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>4423.437063507913</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>4151.410659094205</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>3906.018904427618</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>3678.599233741726</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1790.439125807381</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.296652990805</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D41" t="n">
-        <v>916.3868681652491</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E41" t="n">
-        <v>482.6121233235442</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F41" t="n">
-        <v>54.74469373275195</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G41" t="n">
-        <v>54.74469373275195</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>54.74469373275195</v>
+        <v>94.18688869171366</v>
       </c>
       <c r="I41" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J41" t="n">
-        <v>54.74469373275195</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>732.2102786755574</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>1409.675863618363</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="M41" t="n">
-        <v>2087.141448561168</v>
+        <v>2520.422913940501</v>
       </c>
       <c r="N41" t="n">
-        <v>2737.234686637598</v>
+        <v>2520.422913940501</v>
       </c>
       <c r="O41" t="n">
-        <v>2737.234686637598</v>
+        <v>3500.602580510807</v>
       </c>
       <c r="P41" t="n">
-        <v>2737.234686637598</v>
+        <v>4328.912455344202</v>
       </c>
       <c r="Q41" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="R41" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="S41" t="n">
-        <v>2737.234686637598</v>
+        <v>4604.85309212652</v>
       </c>
       <c r="T41" t="n">
-        <v>2737.234686637598</v>
+        <v>4384.785864999559</v>
       </c>
       <c r="U41" t="n">
-        <v>2737.234686637598</v>
+        <v>4125.563562316575</v>
       </c>
       <c r="V41" t="n">
-        <v>2737.234686637598</v>
+        <v>3762.946612250402</v>
       </c>
       <c r="W41" t="n">
-        <v>2737.234686637598</v>
+        <v>3358.091157661435</v>
       </c>
       <c r="X41" t="n">
-        <v>2625.024819992636</v>
+        <v>2946.70887718477</v>
       </c>
       <c r="Y41" t="n">
-        <v>2216.738696292289</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>560.9164387240447</v>
+        <v>3531.436949455167</v>
       </c>
       <c r="C42" t="n">
-        <v>454.459977560687</v>
+        <v>3424.980488291809</v>
       </c>
       <c r="D42" t="n">
-        <v>359.3696887072403</v>
+        <v>3329.890199438362</v>
       </c>
       <c r="E42" t="n">
-        <v>265.249274034194</v>
+        <v>3235.769784765316</v>
       </c>
       <c r="F42" t="n">
-        <v>181.8654356503556</v>
+        <v>3152.385946381478</v>
       </c>
       <c r="G42" t="n">
-        <v>96.48034591653948</v>
+        <v>3067.000856647662</v>
       </c>
       <c r="H42" t="n">
-        <v>54.74469373275195</v>
+        <v>3025.265204463874</v>
       </c>
       <c r="I42" t="n">
-        <v>80.80836689320955</v>
+        <v>3051.328877624332</v>
       </c>
       <c r="J42" t="n">
-        <v>405.3666918594219</v>
+        <v>3375.887202590545</v>
       </c>
       <c r="K42" t="n">
-        <v>405.3666918594219</v>
+        <v>4030.593249216268</v>
       </c>
       <c r="L42" t="n">
-        <v>405.3666918594219</v>
+        <v>4030.593249216268</v>
       </c>
       <c r="M42" t="n">
-        <v>405.3666918594219</v>
+        <v>4030.593249216268</v>
       </c>
       <c r="N42" t="n">
-        <v>405.3666918594219</v>
+        <v>4030.593249216268</v>
       </c>
       <c r="O42" t="n">
-        <v>405.3666918594219</v>
+        <v>4030.593249216268</v>
       </c>
       <c r="P42" t="n">
-        <v>1060.072738485145</v>
+        <v>4030.593249216268</v>
       </c>
       <c r="Q42" t="n">
-        <v>1600.811677117221</v>
+        <v>4571.332187848343</v>
       </c>
       <c r="R42" t="n">
-        <v>1717.984455211561</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.529017659944</v>
+        <v>4625.049528391066</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.350373990545</v>
+        <v>4494.870884721668</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.013826990514</v>
+        <v>4318.534337721636</v>
       </c>
       <c r="V42" t="n">
-        <v>1148.896309052513</v>
+        <v>4119.416819783635</v>
       </c>
       <c r="W42" t="n">
-        <v>963.5735547857071</v>
+        <v>3934.094065516829</v>
       </c>
       <c r="X42" t="n">
-        <v>808.7061190245871</v>
+        <v>3779.226629755709</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.2203398038079</v>
+        <v>3652.74085053493</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>764.2385311503645</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C43" t="n">
-        <v>591.6768196335894</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D43" t="n">
-        <v>425.7988268351121</v>
+        <v>443.4064111265855</v>
       </c>
       <c r="E43" t="n">
-        <v>256.0408230858494</v>
+        <v>273.6484073773227</v>
       </c>
       <c r="F43" t="n">
-        <v>143.4046429580766</v>
+        <v>96.94135333907892</v>
       </c>
       <c r="G43" t="n">
-        <v>143.4046429580766</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="H43" t="n">
-        <v>143.4046429580766</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="I43" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J43" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>416.0828334685774</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>834.2927152365385</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S43" t="n">
-        <v>2512.162934933549</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T43" t="n">
-        <v>2266.283488512004</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U43" t="n">
-        <v>1987.850487765109</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V43" t="n">
-        <v>1700.894979635539</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W43" t="n">
-        <v>1428.868575221831</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X43" t="n">
-        <v>1183.476820555243</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y43" t="n">
-        <v>956.0571498693516</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1504.950644927595</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C44" t="n">
-        <v>1066.808172111018</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D44" t="n">
-        <v>630.8983872854628</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E44" t="n">
-        <v>197.123642443758</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F44" t="n">
-        <v>54.74469373275195</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G44" t="n">
-        <v>54.74469373275195</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>54.74469373275195</v>
+        <v>94.18688869171366</v>
       </c>
       <c r="I44" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J44" t="n">
-        <v>489.9993811856698</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>666.6506660403358</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>666.6506660403358</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="M44" t="n">
-        <v>666.6506660403358</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="N44" t="n">
-        <v>666.6506660403358</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="O44" t="n">
-        <v>1344.116250983141</v>
+        <v>3144.542240397636</v>
       </c>
       <c r="P44" t="n">
-        <v>2021.581835925947</v>
+        <v>3972.852115231032</v>
       </c>
       <c r="Q44" t="n">
-        <v>2568.080621884541</v>
+        <v>4519.350901189627</v>
       </c>
       <c r="R44" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="S44" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="T44" t="n">
-        <v>2737.234686637598</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="U44" t="n">
-        <v>2737.234686637598</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="V44" t="n">
-        <v>2737.234686637598</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W44" t="n">
-        <v>2332.379232048631</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X44" t="n">
-        <v>1913.236768627942</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y44" t="n">
-        <v>1504.950644927595</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1580.166670150082</v>
+        <v>3531.436949455167</v>
       </c>
       <c r="C45" t="n">
-        <v>1473.710208986724</v>
+        <v>3424.980488291809</v>
       </c>
       <c r="D45" t="n">
-        <v>1378.619920133277</v>
+        <v>3329.890199438362</v>
       </c>
       <c r="E45" t="n">
-        <v>1284.499505460231</v>
+        <v>3235.769784765316</v>
       </c>
       <c r="F45" t="n">
-        <v>1201.115667076393</v>
+        <v>3152.385946381478</v>
       </c>
       <c r="G45" t="n">
-        <v>1115.730577342577</v>
+        <v>3067.000856647662</v>
       </c>
       <c r="H45" t="n">
-        <v>1073.994925158789</v>
+        <v>3025.265204463874</v>
       </c>
       <c r="I45" t="n">
-        <v>1100.058598319247</v>
+        <v>3051.328877624332</v>
       </c>
       <c r="J45" t="n">
-        <v>1424.616923285459</v>
+        <v>3375.887202590545</v>
       </c>
       <c r="K45" t="n">
-        <v>2079.322969911183</v>
+        <v>4030.593249216268</v>
       </c>
       <c r="L45" t="n">
-        <v>2079.322969911183</v>
+        <v>4030.593249216268</v>
       </c>
       <c r="M45" t="n">
-        <v>2079.322969911183</v>
+        <v>4030.593249216268</v>
       </c>
       <c r="N45" t="n">
-        <v>2079.322969911183</v>
+        <v>4030.593249216268</v>
       </c>
       <c r="O45" t="n">
-        <v>2079.322969911183</v>
+        <v>4030.593249216268</v>
       </c>
       <c r="P45" t="n">
-        <v>2079.322969911183</v>
+        <v>4030.593249216268</v>
       </c>
       <c r="Q45" t="n">
-        <v>2620.061908543259</v>
+        <v>4571.332187848343</v>
       </c>
       <c r="R45" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="S45" t="n">
-        <v>2673.779249085981</v>
+        <v>4625.049528391066</v>
       </c>
       <c r="T45" t="n">
-        <v>2543.600605416583</v>
+        <v>4494.870884721668</v>
       </c>
       <c r="U45" t="n">
-        <v>2367.264058416551</v>
+        <v>4318.534337721636</v>
       </c>
       <c r="V45" t="n">
-        <v>2168.14654047855</v>
+        <v>4119.416819783635</v>
       </c>
       <c r="W45" t="n">
-        <v>1982.823786211744</v>
+        <v>3934.094065516829</v>
       </c>
       <c r="X45" t="n">
-        <v>1827.956350450624</v>
+        <v>3779.226629755709</v>
       </c>
       <c r="Y45" t="n">
-        <v>1701.470571229845</v>
+        <v>3652.74085053493</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>764.2385311503645</v>
+        <v>2922.341393116815</v>
       </c>
       <c r="C46" t="n">
-        <v>614.7760850403517</v>
+        <v>2749.77968160004</v>
       </c>
       <c r="D46" t="n">
-        <v>448.8980922418745</v>
+        <v>2583.901688801563</v>
       </c>
       <c r="E46" t="n">
-        <v>448.8980922418745</v>
+        <v>2414.1436850523</v>
       </c>
       <c r="F46" t="n">
-        <v>448.8980922418745</v>
+        <v>2237.436631014056</v>
       </c>
       <c r="G46" t="n">
-        <v>283.3068172677021</v>
+        <v>2071.845356039884</v>
       </c>
       <c r="H46" t="n">
-        <v>143.4046429580766</v>
+        <v>2071.845356039884</v>
       </c>
       <c r="I46" t="n">
-        <v>54.74469373275195</v>
+        <v>2071.845356039884</v>
       </c>
       <c r="J46" t="n">
-        <v>141.3243788974418</v>
+        <v>2158.425041204574</v>
       </c>
       <c r="K46" t="n">
-        <v>416.0828334685774</v>
+        <v>2433.18349577571</v>
       </c>
       <c r="L46" t="n">
-        <v>834.2927152365385</v>
+        <v>2851.39337754367</v>
       </c>
       <c r="M46" t="n">
-        <v>1293.776582417452</v>
+        <v>3310.877244724583</v>
       </c>
       <c r="N46" t="n">
-        <v>1736.035385575096</v>
+        <v>3753.136047882228</v>
       </c>
       <c r="O46" t="n">
-        <v>2155.704634800878</v>
+        <v>4172.805297108009</v>
       </c>
       <c r="P46" t="n">
-        <v>2503.211528771219</v>
+        <v>4520.312191078351</v>
       </c>
       <c r="Q46" t="n">
-        <v>2671.404303635552</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="R46" t="n">
-        <v>2671.404303635552</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="S46" t="n">
-        <v>2512.162934933549</v>
+        <v>4670.265796899998</v>
       </c>
       <c r="T46" t="n">
-        <v>2266.283488512004</v>
+        <v>4424.386350478454</v>
       </c>
       <c r="U46" t="n">
-        <v>1987.850487765109</v>
+        <v>4145.95334973156</v>
       </c>
       <c r="V46" t="n">
-        <v>1700.894979635539</v>
+        <v>3858.99784160199</v>
       </c>
       <c r="W46" t="n">
-        <v>1428.868575221831</v>
+        <v>3586.971437188281</v>
       </c>
       <c r="X46" t="n">
-        <v>1183.476820555243</v>
+        <v>3341.579682521694</v>
       </c>
       <c r="Y46" t="n">
-        <v>956.0571498693516</v>
+        <v>3114.160011835802</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7981,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L2" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8055,28 +8057,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>200.3264657984394</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8216,22 +8218,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L5" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>178.4356412673392</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8295,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8453,7 +8455,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>684.3086716593996</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>684.3086716593994</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>217.0086369934465</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>311.4228197911089</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,10 +8692,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>809.0782778761413</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,10 +8704,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>178.4356412673392</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8763,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8781,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>733.6806231366376</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8927,10 +8929,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>684.3086716593994</v>
+        <v>713.239591328108</v>
       </c>
       <c r="P14" t="n">
-        <v>349.2983329370936</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P15" t="n">
-        <v>95.36690886591691</v>
+        <v>655.9981329904115</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9170,10 +9172,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9237,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9474,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9635,22 +9637,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>427.9646913560541</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1133.488385918382</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458549</v>
@@ -9659,7 +9661,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9878,16 +9880,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>702.7389601124037</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>575.2670899541645</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
@@ -9896,7 +9898,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10112,25 +10114,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>69.04441372935617</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10349,13 +10351,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -10364,10 +10366,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>168.8387779969835</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10422,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10595,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10604,10 +10606,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>168.8387779969844</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,10 +10664,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>289.0667057209134</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10832,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10841,10 +10843,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>168.8387779969844</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>684.3086716593995</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593994</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>656.6598364408383</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>363.2247581802831</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11139,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.319239015882</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11297,10 +11299,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>178.4356412673393</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>809.0782778761413</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,10 +11311,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>684.3086716593995</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.319239015882</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23258,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>411.473222098796</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>63.93537111117013</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>160.7958207444073</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23501,16 +23503,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23546,22 +23548,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>233.4170539801941</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>328.6578670207942</v>
       </c>
     </row>
     <row r="15">
@@ -23662,10 +23664,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>160.7958207444073</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23899,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>120.4463752142716</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24417,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>208.2197249473419</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24652,13 +24654,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>30.81337269022669</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>190.9286964644654</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>208.2197249473419</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25084,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>160.7958207444068</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25363,13 +25365,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>208.2197249473418</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25564,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25597,13 +25599,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>34.67467827192525</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>303.8632708079701</v>
+        <v>7.682581114584025</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>63.43016517136635</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25874,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>282.6335960709883</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,13 +25918,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>72.44040884377216</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>22.86827275269474</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>646959.5985079715</v>
+        <v>646297.9699111328</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>646959.5985079715</v>
+        <v>646297.9699111328</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>646959.5985079715</v>
+        <v>646297.9699111328</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>430095.1553362602</v>
+        <v>618843.2952544949</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>430095.1553362602</v>
+        <v>618843.2952544949</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>659909.1480530715</v>
+        <v>659909.1480530716</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>659909.1480530717</v>
+        <v>659909.1480530715</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>430095.1553362601</v>
+        <v>618843.2952544949</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>430095.1553362602</v>
+        <v>618843.2952544949</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335092.0749315051</v>
+        <v>335092.0749315052</v>
       </c>
       <c r="C2" t="n">
         <v>335092.0749315051</v>
       </c>
       <c r="D2" t="n">
-        <v>335092.0749315051</v>
+        <v>335092.0749315053</v>
       </c>
       <c r="E2" t="n">
-        <v>214611.8287249991</v>
+        <v>308794.6693678432</v>
       </c>
       <c r="F2" t="n">
-        <v>214611.8287249991</v>
+        <v>308794.6693678433</v>
       </c>
       <c r="G2" t="n">
-        <v>329285.9900858452</v>
+        <v>329285.9900858451</v>
       </c>
       <c r="H2" t="n">
         <v>329285.990085845</v>
@@ -26344,16 +26346,16 @@
         <v>329285.9900858451</v>
       </c>
       <c r="M2" t="n">
-        <v>329285.9900858452</v>
+        <v>329285.9900858451</v>
       </c>
       <c r="N2" t="n">
         <v>329285.9900858451</v>
       </c>
       <c r="O2" t="n">
-        <v>214611.8287249991</v>
+        <v>308794.6693678432</v>
       </c>
       <c r="P2" t="n">
-        <v>214611.8287249991</v>
+        <v>308794.6693678433</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229327.5749725129</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>150665.7535717479</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>162793.2877984415</v>
+        <v>29089.80917260783</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179045.2580876519</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>125751.0883356907</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>154345.2424604725</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="C4" t="n">
-        <v>154345.2424604725</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="D4" t="n">
-        <v>154345.2424604725</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>44319.38999483707</v>
+        <v>63769.04507708549</v>
       </c>
       <c r="F4" t="n">
-        <v>44319.38999483707</v>
+        <v>63769.0450770855</v>
       </c>
       <c r="G4" t="n">
-        <v>68000.69828933282</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="H4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="I4" t="n">
+        <v>68000.69828933281</v>
+      </c>
+      <c r="J4" t="n">
+        <v>68000.69828933282</v>
+      </c>
+      <c r="K4" t="n">
+        <v>68000.69828933281</v>
+      </c>
+      <c r="L4" t="n">
+        <v>68000.69828933281</v>
+      </c>
+      <c r="M4" t="n">
         <v>68000.69828933279</v>
       </c>
-      <c r="J4" t="n">
+      <c r="N4" t="n">
         <v>68000.69828933279</v>
       </c>
-      <c r="K4" t="n">
-        <v>68000.69828933279</v>
-      </c>
-      <c r="L4" t="n">
-        <v>68000.69828933279</v>
-      </c>
-      <c r="M4" t="n">
-        <v>68000.69828933281</v>
-      </c>
-      <c r="N4" t="n">
-        <v>68000.69828933281</v>
-      </c>
       <c r="O4" t="n">
-        <v>44319.38999483707</v>
+        <v>63769.04507708549</v>
       </c>
       <c r="P4" t="n">
-        <v>44319.38999483707</v>
+        <v>63769.04507708549</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.27548232878</v>
       </c>
       <c r="F5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.27548232878</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.27548232878</v>
       </c>
       <c r="P5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.27548232878</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-123814.3097383717</v>
+        <v>-119456.7894669711</v>
       </c>
       <c r="C6" t="n">
-        <v>105513.2652341412</v>
+        <v>104242.9091170736</v>
       </c>
       <c r="D6" t="n">
-        <v>105513.2652341412</v>
+        <v>104242.9091170738</v>
       </c>
       <c r="E6" t="n">
-        <v>128686.4714932705</v>
+        <v>23094.59523668105</v>
       </c>
       <c r="F6" t="n">
-        <v>128686.4714932705</v>
+        <v>173760.348808429</v>
       </c>
       <c r="G6" t="n">
-        <v>20773.76539227844</v>
+        <v>154477.244018112</v>
       </c>
       <c r="H6" t="n">
         <v>183567.0531907197</v>
@@ -26543,7 +26545,7 @@
         <v>183567.0531907197</v>
       </c>
       <c r="J6" t="n">
-        <v>4521.795103067823</v>
+        <v>8915.70447301364</v>
       </c>
       <c r="K6" t="n">
         <v>183567.0531907197</v>
@@ -26552,16 +26554,16 @@
         <v>183567.0531907197</v>
       </c>
       <c r="M6" t="n">
-        <v>183567.0531907199</v>
+        <v>57815.96485502907</v>
       </c>
       <c r="N6" t="n">
         <v>183567.0531907198</v>
       </c>
       <c r="O6" t="n">
-        <v>128686.4714932705</v>
+        <v>173760.348808429</v>
       </c>
       <c r="P6" t="n">
-        <v>128686.4714932705</v>
+        <v>173760.348808429</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>504.6110348778139</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>593.9518317253459</v>
+        <v>106.1342618990745</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.6110348778139</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.6110348778139</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>593.9518317253459</v>
+        <v>106.1342618990745</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>120.2910310727117</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27385,7 +27387,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>3.742286579561494</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27543,16 +27545,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>84.63380825304888</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27597,10 +27599,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>144.1344859240863</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,13 +27621,13 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>122.5367257067389</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27670,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>44.33888453491841</v>
       </c>
     </row>
     <row r="6">
@@ -27789,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,10 +27833,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>29.99283294136512</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27856,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>379.5794268420232</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27904,19 +27906,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>370.2548715022045</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28056,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>81.78272691405218</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>143.6516710866791</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34699,10 +34701,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L2" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34775,28 +34777,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>200.3264657984394</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,16 +34856,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645584</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -34936,22 +34938,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L5" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>178.4356412673392</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35015,7 +35017,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35024,7 +35026,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35173,7 +35175,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>684.3086716593996</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>684.3086716593994</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>217.0086369934465</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>311.4228197911089</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35410,10 +35412,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>809.0782778761413</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,16 +35424,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>178.4356412673392</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35501,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>733.6806231366376</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35574,7 +35576,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35647,10 +35649,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35659,16 +35661,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>684.3086716593994</v>
+        <v>713.239591328108</v>
       </c>
       <c r="P14" t="n">
-        <v>349.2983329370936</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,13 +35740,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P15" t="n">
-        <v>95.36690886591691</v>
+        <v>655.9981329904115</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960968</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,10 +35892,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35978,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,7 +36217,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36355,22 +36357,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>427.9646913560541</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1133.488385918382</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458546</v>
@@ -36379,7 +36381,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,10 +36454,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,16 +36600,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>702.7389601124037</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>575.2670899541645</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458546</v>
@@ -36674,7 +36676,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,7 +36691,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36832,25 +36834,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081364</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>69.04441372935617</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
         <v>170.862691669754</v>
@@ -36905,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>661.3192390158824</v>
@@ -36929,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,25 +37071,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>168.8387779969835</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37142,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37239,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37315,19 +37317,19 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>168.8387779969844</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>289.0667057209134</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37394,7 +37396,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37461,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37476,13 +37478,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37552,19 +37554,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>168.8387779969844</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>684.3086716593995</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593994</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>656.6598364408383</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>363.2247581802831</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.319239015882</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37944,7 +37946,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38017,10 +38019,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>178.4356412673393</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>809.0782778761413</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38029,16 +38031,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>684.3086716593995</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.319239015882</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960968</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>837852.6737031933</v>
+        <v>837246.5860742965</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797158</v>
+        <v>606553.2040797155</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -721,13 +721,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>314.249258385514</v>
       </c>
       <c r="X2" t="n">
-        <v>411.2087522069209</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -825,19 +825,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>83.42661545872123</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>3.139541480022511</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -901,13 +901,13 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>243.5612656694179</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -964,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>359.8643779284247</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1065,16 +1065,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>90.30617524481291</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>18.05677735225751</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>153.3454879781877</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>44.69616728427791</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1341,10 +1341,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1353,7 +1353,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>125.6544692828923</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1381,7 +1381,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>12.11553319608831</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -1390,7 +1390,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>3.065195208556083</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1627,7 +1627,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>145.4261460119205</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1675,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>75.54539544254892</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1779,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.3431845617052</v>
+        <v>3.139541480022982</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1864,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2019,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>155.2022955251541</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2493,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2617,7 +2617,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.8069000430781</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
@@ -2724,16 +2724,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2772,7 +2772,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>93.15725658380842</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2964,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3192,10 +3192,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>83.71046610478319</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3441,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3678,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>108.5103196251633</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3723,7 +3723,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3757,7 +3757,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3805,10 +3805,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>407.2684576718984</v>
+        <v>372.1194032977731</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3912,10 +3912,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>3.139541480022995</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3994,7 +3994,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>145.4261460119196</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>130.9830890894425</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4309,13 +4309,13 @@
         <v>981.4316298953097</v>
       </c>
       <c r="C2" t="n">
-        <v>947.329561119137</v>
+        <v>543.2891570787331</v>
       </c>
       <c r="D2" t="n">
-        <v>915.4601803339856</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E2" t="n">
-        <v>481.6854354922808</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F2" t="n">
         <v>53.81800590148855</v>
@@ -4333,16 +4333,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
@@ -4357,22 +4357,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2449.993599304466</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U2" t="n">
-        <v>2190.771296621483</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V2" t="n">
-        <v>1828.15434655531</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W2" t="n">
-        <v>1423.298891966343</v>
+        <v>1427.078979420445</v>
       </c>
       <c r="X2" t="n">
-        <v>1007.936515999756</v>
+        <v>1411.97692004016</v>
       </c>
       <c r="Y2" t="n">
         <v>1003.690796339813</v>
@@ -4409,25 +4409,25 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L3" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M3" t="n">
-        <v>740.3049442308645</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N3" t="n">
-        <v>1401.144998772643</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O3" t="n">
-        <v>1599.468199913098</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P3" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
         <v>1599.468199913098</v>
@@ -4473,16 +4473,16 @@
         <v>403.0375283363599</v>
       </c>
       <c r="E4" t="n">
-        <v>318.768219792197</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="F4" t="n">
-        <v>142.0611657539532</v>
+        <v>56.57247054885332</v>
       </c>
       <c r="G4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I4" t="n">
         <v>53.40121652862856</v>
@@ -4494,7 +4494,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
         <v>1292.433105213328</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>981.0148405224497</v>
+        <v>793.6783655277644</v>
       </c>
       <c r="C5" t="n">
-        <v>946.912771746277</v>
+        <v>759.5762967515918</v>
       </c>
       <c r="D5" t="n">
-        <v>915.0433909611256</v>
+        <v>323.6665119260363</v>
       </c>
       <c r="E5" t="n">
-        <v>481.2686461194208</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
@@ -4570,16 +4570,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
@@ -4597,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2190.771296621483</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V5" t="n">
-        <v>2190.771296621483</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W5" t="n">
-        <v>1785.915842032516</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X5" t="n">
-        <v>1366.773378611827</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y5" t="n">
-        <v>1003.274006966953</v>
+        <v>815.9375319722682</v>
       </c>
     </row>
     <row r="6">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>903.8972536055599</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>731.3355420887848</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>565.4575492903075</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>395.6995455410447</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F7" t="n">
-        <v>218.9924915028009</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="G7" t="n">
-        <v>53.40121652862856</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
         <v>53.40121652862856</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2651.821657388744</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2651.821657388744</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2405.942210967199</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>2127.509210220304</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1840.553702090735</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1568.527297677026</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1323.135543010439</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1095.715872324547</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4804,52 +4804,52 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L8" t="n">
-        <v>1149.495958523325</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="N8" t="n">
-        <v>1149.495958523325</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="O8" t="n">
-        <v>1810.336013065103</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>2471.176067606882</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W8" t="n">
-        <v>2669.245775882865</v>
+        <v>1963.754649317545</v>
       </c>
       <c r="X8" t="n">
-        <v>2624.098132161372</v>
+        <v>1948.65258993726</v>
       </c>
       <c r="Y8" t="n">
-        <v>2215.812008461025</v>
+        <v>1944.406870277317</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4989,16 +4989,16 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2489.401636434797</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>2210.968635687902</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1924.013127558332</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
         <v>1797.089421211977</v>
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2104.363000055492</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C11" t="n">
-        <v>1666.220527238915</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D11" t="n">
-        <v>1230.31074241336</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E11" t="n">
-        <v>796.5359975716547</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
-        <v>784.2980852523735</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>382.9002538756374</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>93.77009931885367</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I11" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
         <v>529.0247867717716</v>
@@ -5047,46 +5047,46 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>2164.362573827329</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M11" t="n">
-        <v>2164.362573827329</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N11" t="n">
-        <v>2164.362573827329</v>
+        <v>2710.861359785925</v>
       </c>
       <c r="O11" t="n">
-        <v>3144.542240397636</v>
+        <v>3691.041026356231</v>
       </c>
       <c r="P11" t="n">
-        <v>3972.852115231032</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="Q11" t="n">
-        <v>4519.350901189627</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R11" t="n">
-        <v>4688.504965942683</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>4604.85309212652</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T11" t="n">
-        <v>4384.785864999559</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U11" t="n">
-        <v>4125.563562316575</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V11" t="n">
-        <v>3762.946612250402</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W11" t="n">
-        <v>3358.091157661435</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X11" t="n">
-        <v>2938.948694240746</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y11" t="n">
-        <v>2530.662570540399</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>93.77009931885367</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>93.77009931885367</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>93.77009931885367</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L12" t="n">
-        <v>93.77009931885367</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M12" t="n">
-        <v>93.77009931885367</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N12" t="n">
-        <v>93.77009931885367</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O12" t="n">
-        <v>820.1139162241249</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P12" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
         <v>1639.837082703323</v>
@@ -5190,13 +5190,13 @@
         <v>259.361374293026</v>
       </c>
       <c r="G13" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H13" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I13" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
         <v>180.3497844835435</v>
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2519.992517327003</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C14" t="n">
-        <v>2081.850044510426</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D14" t="n">
-        <v>1645.940259684871</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E14" t="n">
-        <v>1212.165514843166</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F14" t="n">
-        <v>784.2980852523735</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G14" t="n">
-        <v>382.9002538756374</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H14" t="n">
-        <v>93.77009931885367</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I14" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
         <v>529.0247867717716</v>
@@ -5293,37 +5293,37 @@
         <v>2438.435044982809</v>
       </c>
       <c r="O14" t="n">
-        <v>3144.542240397636</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P14" t="n">
-        <v>3972.852115231032</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q14" t="n">
-        <v>4519.350901189627</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R14" t="n">
-        <v>4688.504965942683</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>4688.504965942683</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T14" t="n">
-        <v>4468.437738815722</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="U14" t="n">
-        <v>4209.215436132738</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="V14" t="n">
-        <v>3846.598486066565</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W14" t="n">
-        <v>3441.743031477598</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X14" t="n">
-        <v>3022.600568056909</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y14" t="n">
-        <v>2946.29208781191</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>93.77009931885367</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>93.77009931885367</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>93.77009931885367</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>93.77009931885367</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>93.77009931885367</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N15" t="n">
-        <v>93.77009931885367</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>1107.571709137155</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P15" t="n">
-        <v>1757.009860797663</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1757.009860797663</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
         <v>1757.009860797663</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2781.339193457497</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C16" t="n">
-        <v>2608.777481940721</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D16" t="n">
-        <v>2442.899489142244</v>
+        <v>443.4064111265855</v>
       </c>
       <c r="E16" t="n">
-        <v>2273.141485392981</v>
+        <v>273.6484073773227</v>
       </c>
       <c r="F16" t="n">
-        <v>2096.434431354738</v>
+        <v>96.94135333907892</v>
       </c>
       <c r="G16" t="n">
-        <v>2071.845356039884</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H16" t="n">
-        <v>2071.845356039884</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I16" t="n">
-        <v>2071.845356039884</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
-        <v>2158.425041204574</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>2433.18349577571</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>2851.39337754367</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>3310.877244724583</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>3753.136047882228</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>4172.805297108009</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>4520.312191078351</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>4688.504965942683</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>4688.504965942683</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>4529.26359724068</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T16" t="n">
-        <v>4283.384150819135</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U16" t="n">
-        <v>4004.951150072241</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V16" t="n">
-        <v>3717.995641942671</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W16" t="n">
-        <v>3445.969237528963</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X16" t="n">
-        <v>3200.577482862375</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y16" t="n">
-        <v>2973.157812176484</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5524,7 +5524,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5545,22 +5545,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5761,43 +5761,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5937,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2683.3639582443</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>525.9458847132731</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1601.005850966132</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2758.053686176683</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W24" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6214,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6232,46 +6232,46 @@
         <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>936.6111322289576</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M26" t="n">
-        <v>1632.322702740237</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N26" t="n">
-        <v>2758.053686176684</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O26" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580387</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1004.611946844417</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>832.0502353276421</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>666.1722425291648</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>496.4142387799021</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1941.268395329592</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1669.241990915884</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1423.850236249296</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1196.430565563404</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6703,19 +6703,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P32" t="n">
         <v>5113.04201353898</v>
@@ -6739,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7162,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7183,7 +7183,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423627</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>1062.363260807472</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>889.8015492906967</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>723.9235564922194</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>554.1655527429566</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>377.4584987047128</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>211.8672237305405</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1481.601550212351</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1254.181879526459</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2520.409306699863</v>
+        <v>2231.279152143079</v>
       </c>
       <c r="C41" t="n">
-        <v>2082.266833883286</v>
+        <v>1793.136679326502</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.357049057731</v>
+        <v>1357.226894500947</v>
       </c>
       <c r="E41" t="n">
-        <v>1212.582304216026</v>
+        <v>923.452149659242</v>
       </c>
       <c r="F41" t="n">
-        <v>784.7148746252335</v>
+        <v>495.5847200684498</v>
       </c>
       <c r="G41" t="n">
-        <v>383.3170432484974</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="H41" t="n">
-        <v>94.18688869171366</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I41" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
-        <v>529.0247867717716</v>
+        <v>424.1063803693496</v>
       </c>
       <c r="K41" t="n">
-        <v>1363.37507872995</v>
+        <v>1258.456672327527</v>
       </c>
       <c r="L41" t="n">
-        <v>1363.37507872995</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M41" t="n">
-        <v>2520.422913940501</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N41" t="n">
-        <v>2520.422913940501</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O41" t="n">
-        <v>3500.602580510807</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P41" t="n">
-        <v>4328.912455344202</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q41" t="n">
-        <v>4688.504965942683</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R41" t="n">
-        <v>4688.504965942683</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>4604.85309212652</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T41" t="n">
-        <v>4384.785864999559</v>
+        <v>4468.437738815723</v>
       </c>
       <c r="U41" t="n">
-        <v>4125.563562316575</v>
+        <v>4209.215436132739</v>
       </c>
       <c r="V41" t="n">
-        <v>3762.946612250402</v>
+        <v>3846.598486066566</v>
       </c>
       <c r="W41" t="n">
-        <v>3358.091157661435</v>
+        <v>3441.743031477599</v>
       </c>
       <c r="X41" t="n">
-        <v>2946.70887718477</v>
+        <v>3065.864846328333</v>
       </c>
       <c r="Y41" t="n">
-        <v>2946.70887718477</v>
+        <v>2657.578722627987</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3531.436949455167</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>3424.980488291809</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
-        <v>3329.890199438362</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>3235.769784765316</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>3152.385946381478</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>3067.000856647662</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>3025.265204463874</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
-        <v>3051.328877624332</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>3375.887202590545</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>4030.593249216268</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>4030.593249216268</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>4030.593249216268</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>4030.593249216268</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>4030.593249216268</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>4030.593249216268</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>4571.332187848343</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>4688.504965942683</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>4625.049528391066</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
-        <v>4494.870884721668</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>4318.534337721636</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
-        <v>4119.416819783635</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>3934.094065516829</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>3779.226629755709</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>3652.74085053493</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>781.8461154418378</v>
+        <v>962.5053054384693</v>
       </c>
       <c r="C43" t="n">
-        <v>609.2844039250627</v>
+        <v>789.9435939216943</v>
       </c>
       <c r="D43" t="n">
-        <v>443.4064111265855</v>
+        <v>624.065601123217</v>
       </c>
       <c r="E43" t="n">
-        <v>273.6484073773227</v>
+        <v>454.3075973739543</v>
       </c>
       <c r="F43" t="n">
-        <v>96.94135333907892</v>
+        <v>277.6005433357104</v>
       </c>
       <c r="G43" t="n">
-        <v>93.77009931885367</v>
+        <v>112.0092683615381</v>
       </c>
       <c r="H43" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I43" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
         <v>180.3497844835435</v>
@@ -7593,28 +7593,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2529.770519225022</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T43" t="n">
-        <v>2283.891072803477</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U43" t="n">
-        <v>2005.458072056582</v>
+        <v>2186.117262053214</v>
       </c>
       <c r="V43" t="n">
-        <v>1718.502563927013</v>
+        <v>1899.161753923644</v>
       </c>
       <c r="W43" t="n">
-        <v>1446.476159513304</v>
+        <v>1627.135349509936</v>
       </c>
       <c r="X43" t="n">
-        <v>1201.084404846717</v>
+        <v>1381.743594843348</v>
       </c>
       <c r="Y43" t="n">
-        <v>973.664734160825</v>
+        <v>1154.323924157457</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2520.409306699863</v>
+        <v>2231.279152143079</v>
       </c>
       <c r="C44" t="n">
-        <v>2082.266833883286</v>
+        <v>1793.136679326502</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.357049057731</v>
+        <v>1357.226894500947</v>
       </c>
       <c r="E44" t="n">
-        <v>1212.582304216026</v>
+        <v>923.452149659242</v>
       </c>
       <c r="F44" t="n">
-        <v>784.7148746252335</v>
+        <v>495.5847200684498</v>
       </c>
       <c r="G44" t="n">
-        <v>383.3170432484974</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="H44" t="n">
-        <v>94.18688869171366</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I44" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
-        <v>529.0247867717716</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K44" t="n">
-        <v>1363.37507872995</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L44" t="n">
-        <v>2164.362573827329</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M44" t="n">
-        <v>2164.362573827329</v>
+        <v>1207.78565514394</v>
       </c>
       <c r="N44" t="n">
-        <v>2164.362573827329</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O44" t="n">
-        <v>3144.542240397636</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P44" t="n">
-        <v>3972.852115231032</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q44" t="n">
-        <v>4519.350901189627</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R44" t="n">
-        <v>4688.504965942683</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>4688.504965942683</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T44" t="n">
-        <v>4541.609868960946</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U44" t="n">
-        <v>4541.609868960946</v>
+        <v>4252.479714404163</v>
       </c>
       <c r="V44" t="n">
-        <v>4178.992918894773</v>
+        <v>3889.86276433799</v>
       </c>
       <c r="W44" t="n">
-        <v>3774.137464305806</v>
+        <v>3485.007309749023</v>
       </c>
       <c r="X44" t="n">
-        <v>3354.995000885117</v>
+        <v>3065.864846328333</v>
       </c>
       <c r="Y44" t="n">
-        <v>2946.70887718477</v>
+        <v>2657.578722627987</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3531.436949455167</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>3424.980488291809</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
-        <v>3329.890199438362</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>3235.769784765316</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>3152.385946381478</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>3067.000856647662</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>3025.265204463874</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
-        <v>3051.328877624332</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>3375.887202590545</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>4030.593249216268</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>4030.593249216268</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>4030.593249216268</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>4030.593249216268</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>4030.593249216268</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>4030.593249216268</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>4571.332187848343</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>4688.504965942683</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>4625.049528391066</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
-        <v>4494.870884721668</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>4318.534337721636</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
-        <v>4119.416819783635</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>3934.094065516829</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>3779.226629755709</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>3652.74085053493</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2922.341393116815</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C46" t="n">
-        <v>2749.77968160004</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D46" t="n">
-        <v>2583.901688801563</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E46" t="n">
-        <v>2414.1436850523</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F46" t="n">
-        <v>2237.436631014056</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G46" t="n">
-        <v>2071.845356039884</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H46" t="n">
-        <v>2071.845356039884</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I46" t="n">
-        <v>2071.845356039884</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
-        <v>2158.425041204574</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>2433.18349577571</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>2851.39337754367</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>3310.877244724583</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>3753.136047882228</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>4172.805297108009</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>4520.312191078351</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>4688.504965942683</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>4688.504965942683</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>4670.265796899998</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T46" t="n">
-        <v>4424.386350478454</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U46" t="n">
-        <v>4145.95334973156</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V46" t="n">
-        <v>3858.99784160199</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W46" t="n">
-        <v>3586.971437188281</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X46" t="n">
-        <v>3341.579682521694</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y46" t="n">
-        <v>3114.160011835802</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
   </sheetData>
@@ -7981,11 +7981,11 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="L2" t="n">
         <v>145.5272350047205</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -8057,7 +8057,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8066,19 +8066,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>200.3264657984394</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8218,19 +8218,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.03100411261585</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8695,13 +8695,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>809.0782778761413</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>275.1780957607234</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8710,7 +8710,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>733.6806231366376</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>713.239591328108</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -8950,7 +8950,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>655.9981329904115</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,10 +9172,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>427.9646913560541</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9661,7 +9661,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9880,10 +9880,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>922.699389992646</v>
       </c>
       <c r="M26" t="n">
-        <v>702.7389601124037</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -9892,10 +9892,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10120,22 +10120,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10366,7 +10366,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10606,10 +10606,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10831,10 +10831,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11059,16 +11059,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>333.6730111621171</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>363.2247581802831</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.319239015882</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>809.0782778761413</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1125.268238207158</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.319239015882</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>411.473222098796</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>411.8858435779263</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>111.2039336442328</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>328.6578670207942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5921776627254</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>120.4463752142716</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>190.9286964644654</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>84.34995760698692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>29.99283294136596</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>7.682581114584025</v>
+        <v>42.83163548870925</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>72.44040884377216</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>125.6469905667107</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>659909.1480530715</v>
+        <v>659909.1480530716</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>659909.1480530716</v>
+        <v>659909.1480530715</v>
       </c>
     </row>
     <row r="11">
@@ -26316,13 +26316,13 @@
         <v>335092.0749315052</v>
       </c>
       <c r="C2" t="n">
-        <v>335092.0749315051</v>
+        <v>335092.0749315052</v>
       </c>
       <c r="D2" t="n">
-        <v>335092.0749315053</v>
+        <v>335092.0749315052</v>
       </c>
       <c r="E2" t="n">
-        <v>308794.6693678432</v>
+        <v>308794.6693678433</v>
       </c>
       <c r="F2" t="n">
         <v>308794.6693678433</v>
@@ -26331,10 +26331,10 @@
         <v>329285.9900858451</v>
       </c>
       <c r="H2" t="n">
+        <v>329285.9900858451</v>
+      </c>
+      <c r="I2" t="n">
         <v>329285.990085845</v>
-      </c>
-      <c r="I2" t="n">
-        <v>329285.9900858451</v>
       </c>
       <c r="J2" t="n">
         <v>329285.9900858451</v>
@@ -26352,7 +26352,7 @@
         <v>329285.9900858451</v>
       </c>
       <c r="O2" t="n">
-        <v>308794.6693678432</v>
+        <v>308794.6693678433</v>
       </c>
       <c r="P2" t="n">
         <v>308794.6693678433</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150665.7535717479</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29089.80917260783</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>125751.0883356907</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>63769.04507708549</v>
+        <v>63769.04507708551</v>
       </c>
       <c r="F4" t="n">
         <v>63769.0450770855</v>
       </c>
       <c r="G4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="H4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="I4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="J4" t="n">
-        <v>68000.69828933282</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="K4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="L4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="M4" t="n">
         <v>68000.69828933279</v>
       </c>
       <c r="N4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="O4" t="n">
-        <v>63769.04507708549</v>
+        <v>63769.0450770855</v>
       </c>
       <c r="P4" t="n">
-        <v>63769.04507708549</v>
+        <v>63769.04507708551</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71265.27548232878</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>71265.27548232878</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>71265.27548232878</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>71265.27548232878</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-119456.7894669711</v>
+        <v>-119456.7894669712</v>
       </c>
       <c r="C6" t="n">
-        <v>104242.9091170736</v>
+        <v>104242.9091170737</v>
       </c>
       <c r="D6" t="n">
-        <v>104242.9091170738</v>
+        <v>104242.9091170737</v>
       </c>
       <c r="E6" t="n">
-        <v>23094.59523668105</v>
+        <v>22989.40561442637</v>
       </c>
       <c r="F6" t="n">
-        <v>173760.348808429</v>
+        <v>173655.1591861744</v>
       </c>
       <c r="G6" t="n">
-        <v>154477.244018112</v>
+        <v>154454.0196787294</v>
       </c>
       <c r="H6" t="n">
-        <v>183567.0531907197</v>
+        <v>183543.8288513371</v>
       </c>
       <c r="I6" t="n">
-        <v>183567.0531907197</v>
+        <v>183543.828851337</v>
       </c>
       <c r="J6" t="n">
-        <v>8915.70447301364</v>
+        <v>8892.48013363097</v>
       </c>
       <c r="K6" t="n">
-        <v>183567.0531907197</v>
+        <v>183543.8288513372</v>
       </c>
       <c r="L6" t="n">
-        <v>183567.0531907197</v>
+        <v>183543.8288513371</v>
       </c>
       <c r="M6" t="n">
-        <v>57815.96485502907</v>
+        <v>57792.74051564637</v>
       </c>
       <c r="N6" t="n">
-        <v>183567.0531907198</v>
+        <v>183543.8288513372</v>
       </c>
       <c r="O6" t="n">
-        <v>173760.348808429</v>
+        <v>173655.1591861744</v>
       </c>
       <c r="P6" t="n">
-        <v>173760.348808429</v>
+        <v>173655.1591861744</v>
       </c>
     </row>
   </sheetData>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.6110348778139</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>106.1342618990745</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778139</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778139</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>106.1342618990745</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>86.55764165756301</v>
       </c>
       <c r="X2" t="n">
-        <v>3.742286579561494</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>84.63380825304888</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7958207444081</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27621,13 +27621,13 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>185.8757317238698</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27636,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>44.33888453491841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>48.19697732171632</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>3.146865729424327</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>268.691086801871</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>370.2548715022045</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28073,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>143.6516710866791</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34701,11 +34701,11 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="L2" t="n">
         <v>145.5272350047205</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
@@ -34713,7 +34713,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -34777,7 +34777,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34786,19 +34786,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>200.3264657984394</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34862,16 +34862,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645584</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34938,19 +34938,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.03100411261585</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35415,13 +35415,13 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>809.0782778761413</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>275.1780957607234</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35430,7 +35430,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>170.862691669754</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35503,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>733.6806231366376</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35661,7 +35661,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>713.239591328108</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35670,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>655.9981329904115</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960968</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35819,13 +35819,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35892,10 +35892,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36217,7 +36217,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>427.9646913560541</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36381,7 +36381,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>661.3192390158824</v>
@@ -36457,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36600,10 +36600,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>922.699389992646</v>
       </c>
       <c r="M26" t="n">
-        <v>702.7389601124037</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -36612,10 +36612,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37086,7 +37086,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>661.3192390158824</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37317,19 +37317,19 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37551,10 +37551,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>661.3192390158824</v>
@@ -37642,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>333.6730111621171</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>363.2247581802831</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.319239015882</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850284</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>809.0782778761413</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1125.268238207158</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38040,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.319239015882</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960968</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38189,13 +38189,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
